--- a/Team-Data/2012-13/2-8-2012-13.xlsx
+++ b/Team-Data/2012-13/2-8-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,40 +733,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P2" t="n">
         <v>19.3</v>
@@ -708,19 +775,19 @@
         <v>0.701</v>
       </c>
       <c r="R2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S2" t="n">
         <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -732,22 +799,22 @@
         <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -762,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -798,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -810,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -950,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.58</v>
+        <v>0.592</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1096,28 +1163,28 @@
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
@@ -1129,10 +1196,10 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
@@ -1144,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>9</v>
@@ -1159,13 +1226,13 @@
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1174,13 +1241,13 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.224</v>
+        <v>0.229</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.425</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T5" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
         <v>7.6</v>
@@ -1281,7 +1348,7 @@
         <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
         <v>94.5</v>
@@ -1290,7 +1357,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1329,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="n">
         <v>24</v>
@@ -1344,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1415,37 +1482,37 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
         <v>17.4</v>
       </c>
       <c r="P6" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>43.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.5</v>
@@ -1457,10 +1524,10 @@
         <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
         <v>20.3</v>
@@ -1472,19 +1539,19 @@
         <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1502,28 +1569,28 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>9</v>
@@ -1532,19 +1599,19 @@
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
         <v>12</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
         <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L7" t="n">
         <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>8.1</v>
@@ -1642,25 +1709,25 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
         <v>29</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1729,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1851,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
@@ -1863,10 +1930,10 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1893,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2057,10 +2124,10 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.373</v>
+        <v>0.36</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O10" t="n">
         <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.696</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>12.8</v>
@@ -2170,10 +2237,10 @@
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2185,19 +2252,19 @@
         <v>5.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
         <v>3</v>
@@ -2218,19 +2285,19 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
         <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -2242,10 +2309,10 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2272,10 +2339,10 @@
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.612</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
@@ -2337,25 +2404,25 @@
         <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2370,22 +2437,22 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,22 +2500,22 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>27</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2486,67 +2553,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.538</v>
+        <v>0.529</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L12" t="n">
         <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.755</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
         <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.4</v>
@@ -2555,37 +2622,37 @@
         <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2606,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2624,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
         <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
         <v>32.7</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2731,25 +2798,25 @@
         <v>6.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2776,16 +2843,16 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>5</v>
@@ -2800,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
         <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.673</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.47</v>
@@ -2880,13 +2947,13 @@
         <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O14" t="n">
         <v>16.9</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
         <v>0.706</v>
@@ -2895,16 +2962,16 @@
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U14" t="n">
         <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
         <v>10.1</v>
@@ -2916,16 +2983,16 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2934,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
         <v>4</v>
@@ -2958,13 +3025,13 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2979,10 +3046,10 @@
         <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.471</v>
+        <v>0.46</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3062,28 +3129,28 @@
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
         <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
         <v>45</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3092,22 +3159,22 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA15" t="n">
         <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3149,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR15" t="n">
         <v>11</v>
@@ -3164,13 +3231,13 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,22 +3299,22 @@
         <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.436</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
         <v>20.3</v>
@@ -3259,43 +3326,43 @@
         <v>13.6</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
         <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC16" t="n">
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
@@ -3304,16 +3371,16 @@
         <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3334,10 +3401,10 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
@@ -3346,22 +3413,22 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.702</v>
+        <v>0.696</v>
       </c>
       <c r="H17" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I17" t="n">
         <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.381</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.756</v>
@@ -3444,13 +3511,13 @@
         <v>30.4</v>
       </c>
       <c r="T17" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U17" t="n">
         <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3459,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
@@ -3468,10 +3535,10 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -3498,16 +3565,16 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3701,10 +3768,10 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.383</v>
+        <v>0.391</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,19 +3845,19 @@
         <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.302</v>
       </c>
       <c r="O19" t="n">
         <v>18.5</v>
@@ -3802,7 +3869,7 @@
         <v>0.731</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S19" t="n">
         <v>30.5</v>
@@ -3811,16 +3878,16 @@
         <v>43.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" t="n">
         <v>6</v>
@@ -3835,16 +3902,16 @@
         <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
         <v>21</v>
@@ -3859,10 +3926,10 @@
         <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
         <v>22</v>
@@ -3877,22 +3944,22 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3904,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -3942,52 +4009,52 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P20" t="n">
         <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
         <v>41.1</v>
@@ -4008,31 +4075,31 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4056,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4065,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
@@ -4074,13 +4141,13 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
@@ -4092,10 +4159,10 @@
         <v>25</v>
       </c>
       <c r="BB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC20" t="n">
         <v>25</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,19 +4209,19 @@
         <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
         <v>11.2</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O21" t="n">
         <v>15.6</v>
@@ -4163,31 +4230,31 @@
         <v>20.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
         <v>41</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
         <v>11.5</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y21" t="n">
         <v>3.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>18.9</v>
@@ -4202,10 +4269,10 @@
         <v>5.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>4</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4253,13 +4320,13 @@
         <v>23</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -4306,67 +4373,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
         <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.383</v>
       </c>
       <c r="O22" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.831</v>
+        <v>0.833</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
         <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y22" t="n">
         <v>4.1</v>
@@ -4378,19 +4445,19 @@
         <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.6</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4414,7 +4481,7 @@
         <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>17</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
         <v>6.7</v>
@@ -4518,7 +4585,7 @@
         <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O23" t="n">
         <v>12.3</v>
@@ -4533,13 +4600,13 @@
         <v>10.6</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4548,34 +4615,34 @@
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -4584,16 +4651,16 @@
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4772,13 +4839,13 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4802,13 +4869,13 @@
         <v>14</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4873,7 +4940,7 @@
         <v>83.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4882,13 +4949,13 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O25" t="n">
         <v>15</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.754</v>
@@ -4897,49 +4964,49 @@
         <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T25" t="n">
         <v>40.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
         <v>14.4</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
         <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>18.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.8</v>
+        <v>-4.3</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
       </c>
       <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
         <v>24</v>
       </c>
-      <c r="AF25" t="n">
-        <v>26</v>
-      </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>26</v>
@@ -4975,7 +5042,7 @@
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
@@ -4984,28 +5051,28 @@
         <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
         <v>0.441</v>
@@ -5061,25 +5128,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
         <v>21.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R26" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
         <v>42</v>
@@ -5088,7 +5155,7 @@
         <v>21.2</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W26" t="n">
         <v>7.2</v>
@@ -5097,28 +5164,28 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -5127,25 +5194,25 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5160,34 +5227,34 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>21</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>10</v>
@@ -5324,13 +5391,13 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>18</v>
@@ -5342,19 +5409,19 @@
         <v>30</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
         <v>10</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.78</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5425,40 +5492,40 @@
         <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
         <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P28" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
         <v>4.6</v>
@@ -5470,10 +5537,10 @@
         <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
         <v>3</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5580,40 +5647,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P29" t="n">
         <v>22.2</v>
@@ -5622,31 +5689,31 @@
         <v>0.772</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.5</v>
@@ -5655,13 +5722,13 @@
         <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -5685,49 +5752,49 @@
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
         <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT29" t="n">
         <v>28</v>
       </c>
-      <c r="AT29" t="n">
-        <v>27</v>
-      </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.549</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,61 +5847,61 @@
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
         <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.5</v>
@@ -5858,25 +5925,25 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
@@ -5885,31 +5952,31 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.286</v>
+        <v>0.271</v>
       </c>
       <c r="H31" t="n">
         <v>48.7</v>
@@ -5971,25 +6038,25 @@
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O31" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
         <v>43.3</v>
@@ -6001,7 +6068,7 @@
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,28 +6077,28 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.1</v>
+        <v>-4.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6061,16 +6128,16 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6088,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-8-2012-13</t>
+          <t>2013-02-08</t>
         </is>
       </c>
     </row>
